--- a/BalanceSheet/CE_bal.xlsx
+++ b/BalanceSheet/CE_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-62000000.0</v>
+        <v>1025000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>46000000.0</v>
+        <v>978000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>51000000.0</v>
+        <v>1001000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>38000000.0</v>
+        <v>1031000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-11000000.0</v>
+        <v>1036000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1038000000.0</v>
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>156000000.0</v>
+        <v>906000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>51000000.0</v>
+        <v>797000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>93000000.0</v>
+        <v>699000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-151000000.0</v>
+        <v>599000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1000000.0</v>
+        <v>724000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>780000000.0</v>
@@ -2902,19 +2902,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>11000000.0</v>
+        <v>275000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
+        <v>250000000.0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>77000000.0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>156000000.0</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>167000000.0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>-75000000.0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>-8000000.0</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>-7000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>257000000.0</v>
@@ -4441,7 +4441,7 @@
         <v>3701000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>3612000000.0</v>
+        <v>3402000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>3204000000.0</v>
@@ -4568,7 +4568,7 @@
         <v>4309000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>4115000000.0</v>
+        <v>3905000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>3727000000.0</v>
